--- a/output/fit_clients/fit_round_215.xlsx
+++ b/output/fit_clients/fit_round_215.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1989981234.325605</v>
+        <v>1862316465.213306</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06936149427829233</v>
+        <v>0.09014295710297504</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0314569724427485</v>
+        <v>0.03913802640261372</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>994990611.4137281</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2300907378.890628</v>
+        <v>1645441516.383562</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1544623020769323</v>
+        <v>0.1682314583385843</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03979406142793205</v>
+        <v>0.03291180920655321</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1150453776.088849</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5144850279.683187</v>
+        <v>4606339254.535015</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1377304830515503</v>
+        <v>0.1060395437641927</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02586799466134334</v>
+        <v>0.02491665659089173</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>78</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2572425235.098568</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3543452911.417743</v>
+        <v>3471785966.540375</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1013763416557955</v>
+        <v>0.07982342176407205</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03916280429466577</v>
+        <v>0.03540617891326365</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>79</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1771726489.56465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2396866785.599751</v>
+        <v>1828339303.970233</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1131807575445968</v>
+        <v>0.1445155665889421</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03496250117723592</v>
+        <v>0.0449576152687638</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>38</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1198433379.429268</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2618157228.731189</v>
+        <v>1929908279.91911</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09672857353143779</v>
+        <v>0.07464605198017968</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03397217432457327</v>
+        <v>0.04456092738520433</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>65</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1309078615.973526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2953171692.776733</v>
+        <v>2470471449.967796</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1848967961751216</v>
+        <v>0.2128527954269133</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02074116914307119</v>
+        <v>0.02826520550290254</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>69</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1476585899.102323</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1942837600.497237</v>
+        <v>1986299251.147861</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1524084560627371</v>
+        <v>0.1901490981601312</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02996844453944799</v>
+        <v>0.03396452520768634</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>971418834.7770261</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4013994326.627944</v>
+        <v>3701440240.700967</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1808970903489599</v>
+        <v>0.1756221832303777</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03906194337971106</v>
+        <v>0.05306835861884791</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>90</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2006997186.29663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3276590825.360129</v>
+        <v>3155630870.765036</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1435109984193061</v>
+        <v>0.1558036089689216</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03680260211702437</v>
+        <v>0.04451364879863604</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>89</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1638295374.899346</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2385995043.689336</v>
+        <v>3076679794.829354</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1996351476227479</v>
+        <v>0.1226424614547404</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03525402316617096</v>
+        <v>0.03492324679011204</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>74</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1192997483.613894</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4470366359.573043</v>
+        <v>3643156288.779548</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08940622807143966</v>
+        <v>0.07191544396145927</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02195827095638342</v>
+        <v>0.02386562425192121</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>72</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2235183210.808336</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3328183565.336983</v>
+        <v>3241408643.791206</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1291514170817688</v>
+        <v>0.1519783197444748</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03994369594654162</v>
+        <v>0.0399708382020695</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>70</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1664091793.318254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1331865069.869823</v>
+        <v>1182185238.804721</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08974862281189079</v>
+        <v>0.08832785937165724</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03918236719936275</v>
+        <v>0.0372505219949533</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>665932582.2991437</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2325376128.729224</v>
+        <v>2243780569.333457</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08503517626307927</v>
+        <v>0.09273079696410179</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04991096664893914</v>
+        <v>0.0447304248207774</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>35</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1162688110.774447</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4594427063.163515</v>
+        <v>3276717046.373726</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1660170228331772</v>
+        <v>0.1302153492462483</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03260690343215192</v>
+        <v>0.03715960452052122</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>63</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2297213536.804343</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2490337859.880739</v>
+        <v>2998213086.309602</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1763607085978782</v>
+        <v>0.1822182734995185</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03300231997912131</v>
+        <v>0.02465245758353061</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>70</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1245168997.137042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1225046935.916532</v>
+        <v>1236680042.994025</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1863683349994434</v>
+        <v>0.1300729455788986</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02616008020082734</v>
+        <v>0.02538022628234907</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>612523551.9620762</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2077495539.91792</v>
+        <v>1753674901.332863</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1540618990274699</v>
+        <v>0.1309657815452085</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02378174392260208</v>
+        <v>0.02808403080475874</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>34</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1038747788.031885</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2304200709.595769</v>
+        <v>1840708395.210021</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09041683310429936</v>
+        <v>0.07474635308350561</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03470120009390226</v>
+        <v>0.02801551735000692</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>16</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1152100361.649797</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3963690352.52588</v>
+        <v>3237972955.778536</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1412756190857166</v>
+        <v>0.0933348317383472</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04100073601135044</v>
+        <v>0.04804672492944483</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>59</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1981845180.066653</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1051100434.372922</v>
+        <v>986857519.1724277</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1329880664490856</v>
+        <v>0.1220998555837896</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03396182115906987</v>
+        <v>0.0366740660456289</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>525550278.7566422</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2989292620.796237</v>
+        <v>2821193931.529849</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1280203408844097</v>
+        <v>0.09619410803280103</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03543677500968175</v>
+        <v>0.0239121508987319</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>63</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1494646346.348169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1362809918.295572</v>
+        <v>1067976672.353778</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1215435699493531</v>
+        <v>0.1055086788485372</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02765285974000057</v>
+        <v>0.03043550269984911</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>681404939.6360168</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>913206464.6541928</v>
+        <v>1251990207.85082</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1232765250336754</v>
+        <v>0.1243600836704614</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03400689035798556</v>
+        <v>0.02361566448413443</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>456603183.2009344</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4336170833.840118</v>
+        <v>3201270636.879718</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1414135066258692</v>
+        <v>0.1031323827068955</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02570185111301876</v>
+        <v>0.01867921150177311</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>48</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2168085410.335792</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2562330760.563782</v>
+        <v>2659276878.729609</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1142221494088767</v>
+        <v>0.1469549867839735</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04349441747163341</v>
+        <v>0.03697849606907047</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>70</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1281165353.501467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3738450041.053644</v>
+        <v>4495192023.68175</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1267245141913587</v>
+        <v>0.1463951493008774</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04002991526914555</v>
+        <v>0.04585054287956736</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>95</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1869225055.45136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2107941702.988866</v>
+        <v>2008260718.147755</v>
       </c>
       <c r="F30" t="n">
-        <v>0.104154563901896</v>
+        <v>0.1246539064437237</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03453371226948229</v>
+        <v>0.03409905478191268</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1053970901.20799</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1338889877.44685</v>
+        <v>1261686386.807755</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09905630578509576</v>
+        <v>0.07950034564739422</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04787451082077288</v>
+        <v>0.03412581840391764</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>669444857.4800043</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1596050286.928816</v>
+        <v>1282422864.072463</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07775866799046896</v>
+        <v>0.08207872011067453</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03633163644521407</v>
+        <v>0.03466863509745931</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>798025231.7092795</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2330571043.293933</v>
+        <v>3074813526.940689</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1422843696281819</v>
+        <v>0.1481865908975792</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04937125200625857</v>
+        <v>0.0575441549027552</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>64</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1165285574.260522</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1491434004.955663</v>
+        <v>1268490167.546393</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09736743700010318</v>
+        <v>0.1073930693978056</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02014972361039072</v>
+        <v>0.01780207411575914</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>745716959.7221903</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1008159133.133583</v>
+        <v>1235010382.866541</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09177658390345729</v>
+        <v>0.1173593282875723</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03612022178373598</v>
+        <v>0.04491365237423136</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>504079583.3536178</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3063365047.102724</v>
+        <v>2486557206.470887</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1324388032291496</v>
+        <v>0.1089625049416183</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01777737650399007</v>
+        <v>0.02479827359960683</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>55</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1531682500.380397</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2442615733.434663</v>
+        <v>2765596682.12629</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0850492018424624</v>
+        <v>0.1048263911785307</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0382640107236347</v>
+        <v>0.02725766677979723</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>56</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1221307954.852986</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1662946891.108397</v>
+        <v>1390835246.788214</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07821957875733657</v>
+        <v>0.1039964043998398</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03276482732821454</v>
+        <v>0.02616973023694665</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>831473471.7768954</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1952829361.181438</v>
+        <v>1724582339.990854</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1279442295897595</v>
+        <v>0.1184483505720534</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0214987534951899</v>
+        <v>0.02518010715911381</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>976414682.2771091</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1497626094.763762</v>
+        <v>1593034501.333456</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09857028978963495</v>
+        <v>0.1043665559785336</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03826414976735779</v>
+        <v>0.05682979238559886</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>748813014.1566608</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1798728958.427105</v>
+        <v>2773262673.531195</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1167629507921301</v>
+        <v>0.1089806158046439</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03546205404644513</v>
+        <v>0.03628545745190863</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>53</v>
-      </c>
-      <c r="J41" t="n">
-        <v>899364573.1286657</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3108449109.733336</v>
+        <v>3614472128.059741</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0935122321814512</v>
+        <v>0.1181427307496799</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0282423879533927</v>
+        <v>0.04374190826914887</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>76</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1554224522.774019</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2589788397.110353</v>
+        <v>2594496140.896149</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1735772942211198</v>
+        <v>0.2043642904164567</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01597873241217694</v>
+        <v>0.01940003542423682</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>73</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1294894238.184785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1826455143.533334</v>
+        <v>1843241390.05488</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06283975818022815</v>
+        <v>0.07610526504514696</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03415307673446853</v>
+        <v>0.02475693658248135</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>913227643.4661143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2075518138.325622</v>
+        <v>1819822782.253807</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1907263585256422</v>
+        <v>0.1508704261283947</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05055191895860971</v>
+        <v>0.04169973312833102</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1037759067.602399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4359238216.276665</v>
+        <v>5617920697.822986</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1699852750424938</v>
+        <v>0.123315169847252</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04380980247446192</v>
+        <v>0.06044782318173174</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>76</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2179619098.259241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4554502141.6528</v>
+        <v>4083758310.634126</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1857993969863727</v>
+        <v>0.1448363602999151</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03756080157191538</v>
+        <v>0.04082415467956991</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>57</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2277251101.356575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2992825828.55193</v>
+        <v>3905016350.136986</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08948136176662995</v>
+        <v>0.109508494968136</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03450964942675189</v>
+        <v>0.02532370602720505</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>75</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1496413007.191041</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1596376978.292392</v>
+        <v>1224735288.073231</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1503924524333329</v>
+        <v>0.1253514086888667</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03968830826182933</v>
+        <v>0.03768707768334711</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>798188506.1610203</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3205811832.027542</v>
+        <v>3609663062.747402</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1274555942436739</v>
+        <v>0.1426120161386953</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0395660429546957</v>
+        <v>0.04731569003880502</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>73</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1602905961.187703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1213795653.636198</v>
+        <v>1262638213.531914</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1362012515477663</v>
+        <v>0.1619711013488496</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03288061286126166</v>
+        <v>0.05122317556890203</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>606897876.1239923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5269157539.923099</v>
+        <v>4014078323.959287</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0971709587349108</v>
+        <v>0.1290648470968164</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04134141362064003</v>
+        <v>0.0478496656469387</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>89</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2634578751.72555</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2850783895.210586</v>
+        <v>3177774937.753373</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1939398345459063</v>
+        <v>0.1740163684303615</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02942870688985167</v>
+        <v>0.02942171995772086</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>61</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1425391990.32928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4969184224.391305</v>
+        <v>3333754018.975298</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1541910513655351</v>
+        <v>0.1202147642875643</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04256615776194902</v>
+        <v>0.03686683236514385</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>71</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2484592252.371542</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3140566328.865049</v>
+        <v>3803807812.855289</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1866772844128793</v>
+        <v>0.200639211567548</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02338584232043713</v>
+        <v>0.02656254441685479</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1570283101.420412</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1443315992.763498</v>
+        <v>1640287068.36387</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1428289109246548</v>
+        <v>0.1062868709662595</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04501634112433473</v>
+        <v>0.05665274171603243</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>721658046.9954149</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3150718333.367191</v>
+        <v>2779488760.835258</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1374374946904567</v>
+        <v>0.1366783960502945</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0216759298702391</v>
+        <v>0.01687574064956011</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>68</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1575359183.723656</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1355064208.642118</v>
+        <v>1380508773.015508</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1914086076000255</v>
+        <v>0.1731479591836346</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02575779992327371</v>
+        <v>0.03596505681467158</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>677532148.6765976</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3371608254.588799</v>
+        <v>5049604097.612115</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1017262685134178</v>
+        <v>0.09368579103677452</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04640373520535376</v>
+        <v>0.03072876650873385</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>59</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1685804133.543805</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2463562975.391805</v>
+        <v>2786694474.921104</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1998479008960732</v>
+        <v>0.2015664982692924</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02566771319786301</v>
+        <v>0.02763410238460176</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>71</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1231781501.756506</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2600205548.517406</v>
+        <v>2564207506.021611</v>
       </c>
       <c r="F61" t="n">
-        <v>0.158085398134823</v>
+        <v>0.1266971893347228</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02427715840333985</v>
+        <v>0.03094334014957939</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>73</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1300102792.412173</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1604949565.671021</v>
+        <v>2038330480.552364</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1506355034589914</v>
+        <v>0.1180763928005435</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04083834061058148</v>
+        <v>0.03396033845859865</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>802474781.6187835</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4296235043.805031</v>
+        <v>4729264896.884116</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08245464118374156</v>
+        <v>0.08505989548872465</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03037468808512615</v>
+        <v>0.0412497087954652</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>62</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2148117571.0692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5376849100.018763</v>
+        <v>4222793083.211059</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1479582392740786</v>
+        <v>0.138823061932192</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02912465619441073</v>
+        <v>0.03242421012906166</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>67</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2688424682.697332</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5468084540.361453</v>
+        <v>4142383547.112831</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1734504822050575</v>
+        <v>0.1185475854381432</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02386073345984589</v>
+        <v>0.03157276120449363</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>77</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2734042201.131853</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4366220685.487852</v>
+        <v>3871233485.086408</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1296364110352604</v>
+        <v>0.1268067162136224</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03945652242908204</v>
+        <v>0.05036059039700127</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>62</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2183110335.914254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2708120751.637288</v>
+        <v>2681477238.272362</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06511922114037649</v>
+        <v>0.0803231169649623</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04184466447017032</v>
+        <v>0.03776774954539643</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>70</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1354060418.743708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4323556007.521199</v>
+        <v>5000171193.675163</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1048817937496648</v>
+        <v>0.1156976033341462</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03672758051898557</v>
+        <v>0.03224485800710129</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>71</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2161778019.141464</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1777709892.824528</v>
+        <v>1979810343.169758</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1708251287701197</v>
+        <v>0.1296170946759128</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05723594696200773</v>
+        <v>0.05896519685612091</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>888854922.5950922</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2394116878.521932</v>
+        <v>2690554803.148733</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07028457270260791</v>
+        <v>0.08215362608609147</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03642347361440559</v>
+        <v>0.04179078602605291</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>61</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1197058376.811072</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3904374615.961374</v>
+        <v>3887064754.669794</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1138491366322311</v>
+        <v>0.1248569284576218</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02607283019136575</v>
+        <v>0.02279551728344359</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>78</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1952187331.906847</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2233548816.915488</v>
+        <v>1879852534.028672</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09896130883315687</v>
+        <v>0.09043188643268213</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04758736282396618</v>
+        <v>0.04647410378803776</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1116774317.13571</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2979924835.764218</v>
+        <v>2172881139.661788</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08999648617433394</v>
+        <v>0.07783059375902845</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04449633337985131</v>
+        <v>0.03889726674564455</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>81</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1489962415.684072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2586696127.237631</v>
+        <v>3449590432.765184</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1258481926037487</v>
+        <v>0.1816357632323555</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02337030616400319</v>
+        <v>0.02852396770445567</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>73</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1293348164.743888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1609399990.970009</v>
+        <v>1568485097.320575</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1603746834510245</v>
+        <v>0.1660499185861556</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02639179398129567</v>
+        <v>0.03796858152662997</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>804699996.2247738</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5203966874.466769</v>
+        <v>3646584816.75344</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1010531433852089</v>
+        <v>0.1013122345023776</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0341045781823453</v>
+        <v>0.02769712537695452</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2601983472.418695</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2257706118.56105</v>
+        <v>2297991686.241188</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1199246822958807</v>
+        <v>0.170970543262996</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02681027081340963</v>
+        <v>0.02792061380125408</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1128853158.819145</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4514451810.046268</v>
+        <v>4113825926.991482</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09837542112198944</v>
+        <v>0.08715302479186716</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05704851702720983</v>
+        <v>0.04460486360138573</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>75</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2257225833.918651</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1569045416.575628</v>
+        <v>1710877902.095094</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1578080127244024</v>
+        <v>0.1274561344979034</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02482961714734756</v>
+        <v>0.03104576199501791</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>784522754.553328</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3472406776.571358</v>
+        <v>4787151264.888027</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07099555697336318</v>
+        <v>0.1074135677977505</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03838534762131478</v>
+        <v>0.02936739853481994</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>45</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1736203361.487903</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5066163064.227611</v>
+        <v>5038870166.250236</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1200177721086427</v>
+        <v>0.1289337609226802</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02975050569524666</v>
+        <v>0.02502550090591034</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>49</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2533081534.891854</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4759751612.433395</v>
+        <v>3822464327.902084</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1426970610046877</v>
+        <v>0.1635785187436018</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02154616175151613</v>
+        <v>0.02021458565423249</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>77</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2379875803.529798</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2110606484.722731</v>
+        <v>2404802651.881577</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1361995029480267</v>
+        <v>0.130574186579405</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03119257459125159</v>
+        <v>0.03564725186165197</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1055303241.444362</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1842355340.357347</v>
+        <v>1781077184.124053</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09172417847571748</v>
+        <v>0.1167939314964806</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03439206264805732</v>
+        <v>0.03641604236903826</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>921177698.2347707</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2873994576.388073</v>
+        <v>2575274755.275667</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1190826110529375</v>
+        <v>0.1424708425201344</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04318902168699305</v>
+        <v>0.03427874865130081</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>81</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1436997334.40439</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2416855605.79942</v>
+        <v>1755471881.65731</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1657835835735874</v>
+        <v>0.1704359781902201</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01706503449981691</v>
+        <v>0.02213075840286004</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>27</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1208427888.472936</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1486757877.486927</v>
+        <v>996691359.8502337</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1160915184992272</v>
+        <v>0.1718463529219409</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03097976045242755</v>
+        <v>0.0352016225172251</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>743379067.8087449</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2936195950.535666</v>
+        <v>2298811319.581034</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1470948255301208</v>
+        <v>0.1089041326023514</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03126361506457084</v>
+        <v>0.02663637668752906</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>84</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1468097999.387601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2987348638.099342</v>
+        <v>3219609732.880581</v>
       </c>
       <c r="F89" t="n">
-        <v>0.151859057527347</v>
+        <v>0.1353973423261849</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03291833517841401</v>
+        <v>0.03901715955667756</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>75</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1493674358.062099</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1455982364.648977</v>
+        <v>1370792971.39036</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1231000079348036</v>
+        <v>0.1080830167981087</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04919517632649625</v>
+        <v>0.04825676960020487</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>727991153.0108365</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1521816454.012584</v>
+        <v>1859852266.881436</v>
       </c>
       <c r="F91" t="n">
-        <v>0.135141754662336</v>
+        <v>0.12181935745122</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06176789056674628</v>
+        <v>0.05653069622112982</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>760908263.0162222</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2442027885.074993</v>
+        <v>2657482039.689828</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07961108434803482</v>
+        <v>0.08736206706058169</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04531731438002029</v>
+        <v>0.03433891768905056</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>55</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1221013922.074164</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3584996338.793935</v>
+        <v>3218957717.575614</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1190745841823755</v>
+        <v>0.1171285602264215</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03961680174908173</v>
+        <v>0.05077662718381807</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>65</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1792498196.812068</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2392544511.753967</v>
+        <v>1661575373.078266</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1603099210408475</v>
+        <v>0.1382457171707557</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04052475398147874</v>
+        <v>0.03673067402538718</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1196272305.31787</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2847292191.162485</v>
+        <v>2872188994.076605</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0985003507526088</v>
+        <v>0.126093871001136</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03849745959991729</v>
+        <v>0.04247687945033629</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>52</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1423646106.402463</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2009581493.418602</v>
+        <v>1818683066.900119</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1315746711691157</v>
+        <v>0.1106589359603646</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03923494697298754</v>
+        <v>0.04164075917822581</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1004790732.644178</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3886169219.019598</v>
+        <v>5043608499.957591</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1523053740178984</v>
+        <v>0.1550577297094259</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02140819855356183</v>
+        <v>0.02494833841716616</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>71</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1943084656.724782</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2478643071.243196</v>
+        <v>3038730477.984737</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08524289264041446</v>
+        <v>0.1276141645906124</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02850123109561964</v>
+        <v>0.03258205340319772</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>57</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1239321484.960387</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2355883084.032782</v>
+        <v>2681316665.605149</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09223633687038797</v>
+        <v>0.1341551804256664</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02482673670086986</v>
+        <v>0.03429867617250331</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>68</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1177941481.261271</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4486976091.88869</v>
+        <v>2944921745.065684</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1160797828689083</v>
+        <v>0.115109761848854</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02076953100497055</v>
+        <v>0.01817211404067148</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>65</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2243488155.478604</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2338571628.547403</v>
+        <v>3131590591.835388</v>
       </c>
       <c r="F101" t="n">
-        <v>0.140174056903646</v>
+        <v>0.1895731536427829</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04574123012389516</v>
+        <v>0.04628170969649897</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>88</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1169285815.878726</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_215.xlsx
+++ b/output/fit_clients/fit_round_215.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1862316465.213306</v>
+        <v>2339486112.090472</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09014295710297504</v>
+        <v>0.1117361905175809</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03913802640261372</v>
+        <v>0.03285386529125651</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1645441516.383562</v>
+        <v>2243211930.265195</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1682314583385843</v>
+        <v>0.1642993427480126</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03291180920655321</v>
+        <v>0.04445224239514214</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4606339254.535015</v>
+        <v>4151841521.614728</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1060395437641927</v>
+        <v>0.1397652943274162</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02491665659089173</v>
+        <v>0.03501830468337146</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3471785966.540375</v>
+        <v>3258213245.469761</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07982342176407205</v>
+        <v>0.1050906930506471</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03540617891326365</v>
+        <v>0.04471874386752606</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1828339303.970233</v>
+        <v>1896694420.823581</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1445155665889421</v>
+        <v>0.14927797195273</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0449576152687638</v>
+        <v>0.05252896074364136</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1929908279.91911</v>
+        <v>2961129404.328987</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07464605198017968</v>
+        <v>0.07038763153599714</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04456092738520433</v>
+        <v>0.04514939803343426</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2470471449.967796</v>
+        <v>3476619519.031094</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2128527954269133</v>
+        <v>0.182270772607719</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02826520550290254</v>
+        <v>0.03251682575332075</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1986299251.147861</v>
+        <v>1627215668.581705</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1901490981601312</v>
+        <v>0.1495288003813897</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03396452520768634</v>
+        <v>0.03036271771735447</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3701440240.700967</v>
+        <v>4104396836.671562</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1756221832303777</v>
+        <v>0.1871716215236585</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05306835861884791</v>
+        <v>0.0497415606851683</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3155630870.765036</v>
+        <v>3063781224.608822</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1558036089689216</v>
+        <v>0.1214097615478019</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04451364879863604</v>
+        <v>0.04552223149894576</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3076679794.829354</v>
+        <v>2887438917.883458</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1226424614547404</v>
+        <v>0.1251650818341307</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03492324679011204</v>
+        <v>0.05286482629067388</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3643156288.779548</v>
+        <v>4874057386.691384</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07191544396145927</v>
+        <v>0.09180216439417123</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02386562425192121</v>
+        <v>0.02509320121701344</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3241408643.791206</v>
+        <v>2550998185.956777</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1519783197444748</v>
+        <v>0.1195140995858465</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0399708382020695</v>
+        <v>0.02967257951481829</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1182185238.804721</v>
+        <v>1290382852.237806</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08832785937165724</v>
+        <v>0.1020995808296596</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0372505219949533</v>
+        <v>0.03918752394285218</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2243780569.333457</v>
+        <v>2575936111.770321</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09273079696410179</v>
+        <v>0.0826954222145804</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0447304248207774</v>
+        <v>0.04157637620762217</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3276717046.373726</v>
+        <v>4617658519.56681</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1302153492462483</v>
+        <v>0.1720287241800442</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03715960452052122</v>
+        <v>0.0384101895210976</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2998213086.309602</v>
+        <v>2578909986.499243</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1822182734995185</v>
+        <v>0.1702165060998134</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02465245758353061</v>
+        <v>0.02918265705801341</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1236680042.994025</v>
+        <v>1231681888.586082</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1300729455788986</v>
+        <v>0.1724393335303204</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02538022628234907</v>
+        <v>0.02549477640290025</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1753674901.332863</v>
+        <v>2594707286.216557</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1309657815452085</v>
+        <v>0.1298900304577579</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02808403080475874</v>
+        <v>0.02612056256024512</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1840708395.210021</v>
+        <v>2226256118.219194</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07474635308350561</v>
+        <v>0.08868785489473976</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02801551735000692</v>
+        <v>0.04064604088240541</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3237972955.778536</v>
+        <v>3940285443.916249</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0933348317383472</v>
+        <v>0.09343203850289934</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04804672492944483</v>
+        <v>0.04282790326397472</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>986857519.1724277</v>
+        <v>1455328305.196107</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1220998555837896</v>
+        <v>0.1268578687148465</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0366740660456289</v>
+        <v>0.04249475344401459</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2821193931.529849</v>
+        <v>3523794027.68809</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09619410803280103</v>
+        <v>0.149182383086825</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0239121508987319</v>
+        <v>0.03300043484116634</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1067976672.353778</v>
+        <v>1170636497.403911</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1055086788485372</v>
+        <v>0.1057723729917558</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03043550269984911</v>
+        <v>0.02948909202099975</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1251990207.85082</v>
+        <v>908496126.1746808</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1243600836704614</v>
+        <v>0.08326979555393235</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02361566448413443</v>
+        <v>0.03712329777569648</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3201270636.879718</v>
+        <v>4543319990.141447</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1031323827068955</v>
+        <v>0.1420690070368325</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01867921150177311</v>
+        <v>0.01638639982149586</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2659276878.729609</v>
+        <v>2374209500.086028</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1469549867839735</v>
+        <v>0.112499602408708</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03697849606907047</v>
+        <v>0.0420546373570387</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4495192023.68175</v>
+        <v>4717429203.421643</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1463951493008774</v>
+        <v>0.09154834191165029</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04585054287956736</v>
+        <v>0.03755639235724304</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2008260718.147755</v>
+        <v>1732179243.542955</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1246539064437237</v>
+        <v>0.1346202980150116</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03409905478191268</v>
+        <v>0.02762093066432667</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1261686386.807755</v>
+        <v>1120657442.234226</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07950034564739422</v>
+        <v>0.1070695937175162</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03412581840391764</v>
+        <v>0.03378057002626891</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1282422864.072463</v>
+        <v>1535192491.626612</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08207872011067453</v>
+        <v>0.1197310929733821</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03466863509745931</v>
+        <v>0.03620312709445168</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3074813526.940689</v>
+        <v>2432061018.779122</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1481865908975792</v>
+        <v>0.1596957632077461</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0575441549027552</v>
+        <v>0.05780388827294888</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1268490167.546393</v>
+        <v>1421843278.149324</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1073930693978056</v>
+        <v>0.1148821645526105</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01780207411575914</v>
+        <v>0.01812351698709236</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1235010382.866541</v>
+        <v>854054406.1027744</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1173593282875723</v>
+        <v>0.1123704496651626</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04491365237423136</v>
+        <v>0.0363532942008991</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2486557206.470887</v>
+        <v>2129064516.216717</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1089625049416183</v>
+        <v>0.1743766510756695</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02479827359960683</v>
+        <v>0.02330869536552808</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2765596682.12629</v>
+        <v>2578294025.388748</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1048263911785307</v>
+        <v>0.0817861330979931</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02725766677979723</v>
+        <v>0.03344105976453025</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1390835246.788214</v>
+        <v>1751540525.532522</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1039964043998398</v>
+        <v>0.08240333484453413</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02616973023694665</v>
+        <v>0.0295739750742753</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1724582339.990854</v>
+        <v>2152946594.846134</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1184483505720534</v>
+        <v>0.1805515758001107</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02518010715911381</v>
+        <v>0.02832626070096115</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1593034501.333456</v>
+        <v>1776755502.242625</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1043665559785336</v>
+        <v>0.1319289991703215</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05682979238559886</v>
+        <v>0.04843545901298114</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2773262673.531195</v>
+        <v>1922477012.338615</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1089806158046439</v>
+        <v>0.1210820244989931</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03628545745190863</v>
+        <v>0.04168309600249626</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3614472128.059741</v>
+        <v>4166484841.770636</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1181427307496799</v>
+        <v>0.07867935881146046</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04374190826914887</v>
+        <v>0.04554921420481883</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2594496140.896149</v>
+        <v>2558929631.632085</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2043642904164567</v>
+        <v>0.1781093154115999</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01940003542423682</v>
+        <v>0.01611492991001385</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1843241390.05488</v>
+        <v>1594378484.394318</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07610526504514696</v>
+        <v>0.08085303268240193</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02475693658248135</v>
+        <v>0.02696927854880279</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1819822782.253807</v>
+        <v>1837433494.540654</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1508704261283947</v>
+        <v>0.1548994094559076</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04169973312833102</v>
+        <v>0.04863673763930954</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5617920697.822986</v>
+        <v>5223271935.791539</v>
       </c>
       <c r="F46" t="n">
-        <v>0.123315169847252</v>
+        <v>0.1245864591982686</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06044782318173174</v>
+        <v>0.05376169650166284</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4083758310.634126</v>
+        <v>3526184038.900051</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1448363602999151</v>
+        <v>0.192753492057376</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04082415467956991</v>
+        <v>0.05276247990517648</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3905016350.136986</v>
+        <v>3141361613.804744</v>
       </c>
       <c r="F48" t="n">
-        <v>0.109508494968136</v>
+        <v>0.06650872790576827</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02532370602720505</v>
+        <v>0.03890193405838464</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1224735288.073231</v>
+        <v>1207861323.479658</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1253514086888667</v>
+        <v>0.1328644876322908</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03768707768334711</v>
+        <v>0.0367953675849396</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3609663062.747402</v>
+        <v>3650218741.31694</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1426120161386953</v>
+        <v>0.146324691457991</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04731569003880502</v>
+        <v>0.05253410730984309</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1262638213.531914</v>
+        <v>1392187345.110307</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1619711013488496</v>
+        <v>0.1516963065953638</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05122317556890203</v>
+        <v>0.04278218916682991</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4014078323.959287</v>
+        <v>3532637814.854426</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1290648470968164</v>
+        <v>0.1026337917171414</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0478496656469387</v>
+        <v>0.04342761172861216</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3177774937.753373</v>
+        <v>2558445967.815072</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1740163684303615</v>
+        <v>0.1677954183423407</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02942171995772086</v>
+        <v>0.02175365384258906</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3333754018.975298</v>
+        <v>3377217323.201639</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1202147642875643</v>
+        <v>0.118459354927885</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03686683236514385</v>
+        <v>0.04671410519516998</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3803807812.855289</v>
+        <v>3723941703.056045</v>
       </c>
       <c r="F55" t="n">
-        <v>0.200639211567548</v>
+        <v>0.219288080697047</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02656254441685479</v>
+        <v>0.03023506716685431</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1640287068.36387</v>
+        <v>1410914643.927284</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1062868709662595</v>
+        <v>0.1626852759245123</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05665274171603243</v>
+        <v>0.03706958405446689</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2779488760.835258</v>
+        <v>3826300560.569916</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1366783960502945</v>
+        <v>0.1203792931801231</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01687574064956011</v>
+        <v>0.02672161345748725</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1380508773.015508</v>
+        <v>1474008844.080932</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1731479591836346</v>
+        <v>0.1613456496137607</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03596505681467158</v>
+        <v>0.03093453793710244</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5049604097.612115</v>
+        <v>4227300944.360503</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09368579103677452</v>
+        <v>0.110248068178582</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03072876650873385</v>
+        <v>0.03701349124196491</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2786694474.921104</v>
+        <v>3455604860.6182</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2015664982692924</v>
+        <v>0.1592188200267715</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02763410238460176</v>
+        <v>0.02408933923221077</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2564207506.021611</v>
+        <v>2123734120.843989</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1266971893347228</v>
+        <v>0.1261170826651194</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03094334014957939</v>
+        <v>0.02629198437466451</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2038330480.552364</v>
+        <v>1566828451.681332</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1180763928005435</v>
+        <v>0.1350384480936564</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03396033845859865</v>
+        <v>0.04713126885535621</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4729264896.884116</v>
+        <v>5270930950.988339</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08505989548872465</v>
+        <v>0.09554740264449742</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0412497087954652</v>
+        <v>0.03140095146747114</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4222793083.211059</v>
+        <v>4442235689.945831</v>
       </c>
       <c r="F64" t="n">
-        <v>0.138823061932192</v>
+        <v>0.1751673367582147</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03242421012906166</v>
+        <v>0.02498907165583723</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4142383547.112831</v>
+        <v>5065148795.779645</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1185475854381432</v>
+        <v>0.1173240184094966</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03157276120449363</v>
+        <v>0.03018026680910911</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3871233485.086408</v>
+        <v>5512056303.973833</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1268067162136224</v>
+        <v>0.1410401966672575</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05036059039700127</v>
+        <v>0.03825952896871333</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2681477238.272362</v>
+        <v>3426657366.733695</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0803231169649623</v>
+        <v>0.07096639010009308</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03776774954539643</v>
+        <v>0.05001592579333839</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5000171193.675163</v>
+        <v>4816579855.502724</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1156976033341462</v>
+        <v>0.1477689727005579</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03224485800710129</v>
+        <v>0.03655274079696985</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1979810343.169758</v>
+        <v>2044774618.358119</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1296170946759128</v>
+        <v>0.1223186035043816</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05896519685612091</v>
+        <v>0.04810333692174879</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2690554803.148733</v>
+        <v>3584747434.696208</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08215362608609147</v>
+        <v>0.1020516492844681</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04179078602605291</v>
+        <v>0.04300886218473531</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3887064754.669794</v>
+        <v>5470268620.312793</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1248569284576218</v>
+        <v>0.1283202895552207</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02279551728344359</v>
+        <v>0.03381449308858814</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1879852534.028672</v>
+        <v>1416640285.534453</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09043188643268213</v>
+        <v>0.1085081794061652</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04647410378803776</v>
+        <v>0.04550506812699401</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2172881139.661788</v>
+        <v>2194387278.075812</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07783059375902845</v>
+        <v>0.0974005190986693</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03889726674564455</v>
+        <v>0.03348546103183013</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3449590432.765184</v>
+        <v>3414931325.340239</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1816357632323555</v>
+        <v>0.1289897420948533</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02852396770445567</v>
+        <v>0.02496297876604926</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1568485097.320575</v>
+        <v>1586289333.733443</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1660499185861556</v>
+        <v>0.1224287913123234</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03796858152662997</v>
+        <v>0.03095688031008917</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3646584816.75344</v>
+        <v>3888102872.737443</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1013122345023776</v>
+        <v>0.09313495121766503</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02769712537695452</v>
+        <v>0.02340315007231385</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2297991686.241188</v>
+        <v>1486559552.967742</v>
       </c>
       <c r="F77" t="n">
-        <v>0.170970543262996</v>
+        <v>0.1124570733455083</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02792061380125408</v>
+        <v>0.03003777079598308</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4113825926.991482</v>
+        <v>3202412422.841199</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08715302479186716</v>
+        <v>0.1015549433593982</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04460486360138573</v>
+        <v>0.05351827424857392</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1710877902.095094</v>
+        <v>1471442891.494107</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1274561344979034</v>
+        <v>0.1735143735380063</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03104576199501791</v>
+        <v>0.03756999457039498</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4787151264.888027</v>
+        <v>3834929252.2517</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1074135677977505</v>
+        <v>0.1038638875465172</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02936739853481994</v>
+        <v>0.0245581090207483</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5038870166.250236</v>
+        <v>3824672824.671122</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1289337609226802</v>
+        <v>0.08925856464817992</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02502550090591034</v>
+        <v>0.02946066528281378</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3822464327.902084</v>
+        <v>5700568950.15357</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1635785187436018</v>
+        <v>0.139921035195256</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02021458565423249</v>
+        <v>0.01885426567648378</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2404802651.881577</v>
+        <v>1743028834.802983</v>
       </c>
       <c r="F83" t="n">
-        <v>0.130574186579405</v>
+        <v>0.1550569975437374</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03564725186165197</v>
+        <v>0.03807346291620242</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1781077184.124053</v>
+        <v>1625134538.993397</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1167939314964806</v>
+        <v>0.08120657896866403</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03641604236903826</v>
+        <v>0.04354329205243034</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2575274755.275667</v>
+        <v>2868423484.799781</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1424708425201344</v>
+        <v>0.1151040962179196</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03427874865130081</v>
+        <v>0.04457979498939024</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1755471881.65731</v>
+        <v>1713205598.939814</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1704359781902201</v>
+        <v>0.1587766890616805</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02213075840286004</v>
+        <v>0.01789796996086306</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>996691359.8502337</v>
+        <v>1001729942.710437</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1718463529219409</v>
+        <v>0.1462028114823537</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0352016225172251</v>
+        <v>0.02921878045679898</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2298811319.581034</v>
+        <v>3636683633.091919</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1089041326023514</v>
+        <v>0.1312622218019789</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02663637668752906</v>
+        <v>0.03506021166276557</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3219609732.880581</v>
+        <v>2877790607.131807</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1353973423261849</v>
+        <v>0.1194753368931161</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03901715955667756</v>
+        <v>0.02687779361784543</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1370792971.39036</v>
+        <v>1844225251.612405</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1080830167981087</v>
+        <v>0.1018932559508624</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04825676960020487</v>
+        <v>0.05100305732382767</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1859852266.881436</v>
+        <v>1441160250.076319</v>
       </c>
       <c r="F91" t="n">
-        <v>0.12181935745122</v>
+        <v>0.1628308687183638</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05653069622112982</v>
+        <v>0.048666638022939</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2657482039.689828</v>
+        <v>2909941060.752088</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08736206706058169</v>
+        <v>0.06819655242700988</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03433891768905056</v>
+        <v>0.03780702704871222</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3218957717.575614</v>
+        <v>4862418535.946095</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1171285602264215</v>
+        <v>0.1271326850416123</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05077662718381807</v>
+        <v>0.0336477210155299</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1661575373.078266</v>
+        <v>2025658339.893731</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1382457171707557</v>
+        <v>0.1423444402452295</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03673067402538718</v>
+        <v>0.04128398391403006</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2872188994.076605</v>
+        <v>2198967175.671803</v>
       </c>
       <c r="F95" t="n">
-        <v>0.126093871001136</v>
+        <v>0.1247659098867307</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04247687945033629</v>
+        <v>0.03913443031242832</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1818683066.900119</v>
+        <v>2244775142.506868</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1106589359603646</v>
+        <v>0.08763902882748473</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04164075917822581</v>
+        <v>0.03864858010396049</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5043608499.957591</v>
+        <v>3363637073.94783</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1550577297094259</v>
+        <v>0.1152452830336113</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02494833841716616</v>
+        <v>0.01936956664484477</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3038730477.984737</v>
+        <v>3205964548.956469</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1276141645906124</v>
+        <v>0.1225907448786045</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03258205340319772</v>
+        <v>0.02794310675146423</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2681316665.605149</v>
+        <v>3264122694.122395</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1341551804256664</v>
+        <v>0.1241273117879763</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03429867617250331</v>
+        <v>0.03209662056035234</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2944921745.065684</v>
+        <v>4418550055.17398</v>
       </c>
       <c r="F100" t="n">
-        <v>0.115109761848854</v>
+        <v>0.136533748335885</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01817211404067148</v>
+        <v>0.02004344755385038</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3131590591.835388</v>
+        <v>2344539268.884963</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1895731536427829</v>
+        <v>0.1345463707537013</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04628170969649897</v>
+        <v>0.04754541133503801</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_215.xlsx
+++ b/output/fit_clients/fit_round_215.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2339486112.090472</v>
+        <v>1783129016.409192</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1117361905175809</v>
+        <v>0.07604008646759515</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03285386529125651</v>
+        <v>0.03841673753062649</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2243211930.265195</v>
+        <v>2402188453.974342</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1642993427480126</v>
+        <v>0.139116261892118</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04445224239514214</v>
+        <v>0.04226861961457125</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4151841521.614728</v>
+        <v>3657863522.910007</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1397652943274162</v>
+        <v>0.1407176263956077</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03501830468337146</v>
+        <v>0.02319994480830864</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>117</v>
+      </c>
+      <c r="J4" t="n">
+        <v>215</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3258213245.469761</v>
+        <v>2659933187.312557</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1050906930506471</v>
+        <v>0.07840188000435873</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04471874386752606</v>
+        <v>0.04654146555584227</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>88</v>
+      </c>
+      <c r="J5" t="n">
+        <v>212</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1896694420.823581</v>
+        <v>2416035861.569236</v>
       </c>
       <c r="F6" t="n">
-        <v>0.14927797195273</v>
+        <v>0.09456199001281121</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05252896074364136</v>
+        <v>0.03421788399188576</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2961129404.328987</v>
+        <v>2416860325.559107</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07038763153599714</v>
+        <v>0.09548743893444102</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04514939803343426</v>
+        <v>0.03722967307659326</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3476619519.031094</v>
+        <v>3711028391.262351</v>
       </c>
       <c r="F8" t="n">
-        <v>0.182270772607719</v>
+        <v>0.1631291541758089</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03251682575332075</v>
+        <v>0.02610989532004972</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>61</v>
+      </c>
+      <c r="J8" t="n">
+        <v>214</v>
+      </c>
+      <c r="K8" t="n">
+        <v>89.65190967486642</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1627215668.581705</v>
+        <v>1420230586.743749</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1495288003813897</v>
+        <v>0.1340311480476941</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03036271771735447</v>
+        <v>0.0310403113295541</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4104396836.671562</v>
+        <v>4534848767.737843</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1871716215236585</v>
+        <v>0.149449658146</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0497415606851683</v>
+        <v>0.03678154432269015</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>196</v>
+      </c>
+      <c r="J10" t="n">
+        <v>215</v>
+      </c>
+      <c r="K10" t="n">
+        <v>124.2082525397853</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +820,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3063781224.608822</v>
+        <v>3613643750.180293</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1214097615478019</v>
+        <v>0.1593277363650306</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04552223149894576</v>
+        <v>0.03713438635652828</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>90</v>
+      </c>
+      <c r="J11" t="n">
+        <v>214</v>
+      </c>
+      <c r="K11" t="n">
+        <v>92.17050116480938</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2887438917.883458</v>
+        <v>2850479072.113518</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1251650818341307</v>
+        <v>0.1934257920711722</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05286482629067388</v>
+        <v>0.03884153567816831</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4874057386.691384</v>
+        <v>3251798028.165618</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09180216439417123</v>
+        <v>0.09955544877232843</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02509320121701344</v>
+        <v>0.02072854570801199</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>108</v>
+      </c>
+      <c r="J13" t="n">
+        <v>214</v>
+      </c>
+      <c r="K13" t="n">
+        <v>68.23565453792797</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2550998185.956777</v>
+        <v>3200381022.251918</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1195140995858465</v>
+        <v>0.1261044333883012</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02967257951481829</v>
+        <v>0.03415682743157333</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>42</v>
+      </c>
+      <c r="J14" t="n">
+        <v>212</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1290382852.237806</v>
+        <v>1133002003.479768</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1020995808296596</v>
+        <v>0.08752536189306516</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03918752394285218</v>
+        <v>0.03128870443130159</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2575936111.770321</v>
+        <v>2580325108.000773</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0826954222145804</v>
+        <v>0.08771003213207453</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04157637620762217</v>
+        <v>0.03729030689384588</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4617658519.56681</v>
+        <v>5097021587.658331</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1720287241800442</v>
+        <v>0.106129036153419</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0384101895210976</v>
+        <v>0.03297737811443423</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>103</v>
+      </c>
+      <c r="J17" t="n">
+        <v>215</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2578909986.499243</v>
+        <v>3395369035.991942</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1702165060998134</v>
+        <v>0.1435279267197406</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02918265705801341</v>
+        <v>0.02860672640831573</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>55</v>
+      </c>
+      <c r="J18" t="n">
+        <v>215</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1231681888.586082</v>
+        <v>1288815418.826694</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1724393335303204</v>
+        <v>0.1304235383449144</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02549477640290025</v>
+        <v>0.02179725543662647</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2594707286.216557</v>
+        <v>2423282957.65173</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1298900304577579</v>
+        <v>0.1303259358741874</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02612056256024512</v>
+        <v>0.03058254301692575</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2226256118.219194</v>
+        <v>2032182504.08026</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08868785489473976</v>
+        <v>0.06748150680042221</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04064604088240541</v>
+        <v>0.03579668481541086</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3940285443.916249</v>
+        <v>3205696189.388673</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09343203850289934</v>
+        <v>0.1035598264858209</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04282790326397472</v>
+        <v>0.04074081314541275</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>55</v>
+      </c>
+      <c r="J22" t="n">
+        <v>213</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1455328305.196107</v>
+        <v>998877309.8102965</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1268578687148465</v>
+        <v>0.1686267857301493</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04249475344401459</v>
+        <v>0.04096193138014889</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3523794027.68809</v>
+        <v>3937007604.187728</v>
       </c>
       <c r="F24" t="n">
-        <v>0.149182383086825</v>
+        <v>0.1444158059027772</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03300043484116634</v>
+        <v>0.03065118317404768</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>67</v>
+      </c>
+      <c r="J24" t="n">
+        <v>215</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1170636497.403911</v>
+        <v>1161011572.366525</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1057723729917558</v>
+        <v>0.08937918879524565</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02948909202099975</v>
+        <v>0.03094212668814944</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>908496126.1746808</v>
+        <v>1048176440.011487</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08326979555393235</v>
+        <v>0.07913048744482272</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03712329777569648</v>
+        <v>0.02399924415307524</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1384,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4543319990.141447</v>
+        <v>3166676914.291247</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1420690070368325</v>
+        <v>0.1505716420407061</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01638639982149586</v>
+        <v>0.02145300186732901</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>85</v>
+      </c>
+      <c r="J27" t="n">
+        <v>213</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1419,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2374209500.086028</v>
+        <v>2846168501.762744</v>
       </c>
       <c r="F28" t="n">
-        <v>0.112499602408708</v>
+        <v>0.09715415098774077</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0420546373570387</v>
+        <v>0.04004562829435587</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>43</v>
+      </c>
+      <c r="J28" t="n">
+        <v>203</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4717429203.421643</v>
+        <v>4921328981.121441</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09154834191165029</v>
+        <v>0.1505909262016563</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03755639235724304</v>
+        <v>0.0370611173717012</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>204</v>
+      </c>
+      <c r="J29" t="n">
+        <v>215</v>
+      </c>
+      <c r="K29" t="n">
+        <v>128.2245655977951</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1732179243.542955</v>
+        <v>2372346330.712935</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1346202980150116</v>
+        <v>0.1281932139931183</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02762093066432667</v>
+        <v>0.03318126993555674</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1120657442.234226</v>
+        <v>1416810647.54301</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1070695937175162</v>
+        <v>0.09809492661011944</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03378057002626891</v>
+        <v>0.05009096774252231</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1535192491.626612</v>
+        <v>1567020561.691562</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1197310929733821</v>
+        <v>0.1128747135702324</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03620312709445168</v>
+        <v>0.03645990232526457</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2432061018.779122</v>
+        <v>2930192458.2315</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1596957632077461</v>
+        <v>0.1794654283370545</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05780388827294888</v>
+        <v>0.03847848292295991</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1421843278.149324</v>
+        <v>1251287396.513194</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1148821645526105</v>
+        <v>0.1030814100964493</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01812351698709236</v>
+        <v>0.018729324583962</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>854054406.1027744</v>
+        <v>1200955123.69805</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1123704496651626</v>
+        <v>0.1142441471523824</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0363532942008991</v>
+        <v>0.03209663569813387</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2129064516.216717</v>
+        <v>2549739573.319533</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1743766510756695</v>
+        <v>0.1454623587419858</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02330869536552808</v>
+        <v>0.01795150156128249</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2578294025.388748</v>
+        <v>2666180318.696771</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0817861330979931</v>
+        <v>0.07811334570691549</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03344105976453025</v>
+        <v>0.04240099717182868</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1751540525.532522</v>
+        <v>1809021398.991053</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08240333484453413</v>
+        <v>0.07791108590348295</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0295739750742753</v>
+        <v>0.02538216871381561</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2152946594.846134</v>
+        <v>1699093809.266761</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1805515758001107</v>
+        <v>0.1927768470458906</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02832626070096115</v>
+        <v>0.02559103865210932</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1776755502.242625</v>
+        <v>1546709336.882389</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1319289991703215</v>
+        <v>0.1304298691416454</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04843545901298114</v>
+        <v>0.04031335140272169</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1922477012.338615</v>
+        <v>2875647390.635092</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1210820244989931</v>
+        <v>0.1399303483900454</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04168309600249626</v>
+        <v>0.03313037816780647</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4166484841.770636</v>
+        <v>3683751653.869929</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07867935881146046</v>
+        <v>0.0922582104508914</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04554921420481883</v>
+        <v>0.03052013463177414</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>85</v>
+      </c>
+      <c r="J42" t="n">
+        <v>214</v>
+      </c>
+      <c r="K42" t="n">
+        <v>93.83644488967676</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2558929631.632085</v>
+        <v>2770814855.68929</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1781093154115999</v>
+        <v>0.1288329359800927</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01611492991001385</v>
+        <v>0.02471721248404309</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1594378484.394318</v>
+        <v>1964403227.099384</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08085303268240193</v>
+        <v>0.08727595155588254</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02696927854880279</v>
+        <v>0.02943230870125695</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1837433494.540654</v>
+        <v>1624112120.713515</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1548994094559076</v>
+        <v>0.1944928133664013</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04863673763930954</v>
+        <v>0.04620829150932092</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5223271935.791539</v>
+        <v>4572192308.405787</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1245864591982686</v>
+        <v>0.1581339937918608</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05376169650166284</v>
+        <v>0.04307944238404285</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>123</v>
+      </c>
+      <c r="J46" t="n">
+        <v>214</v>
+      </c>
+      <c r="K46" t="n">
+        <v>115.5292521078927</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2090,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3526184038.900051</v>
+        <v>3814243411.25412</v>
       </c>
       <c r="F47" t="n">
-        <v>0.192753492057376</v>
+        <v>0.1328601747797785</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05276247990517648</v>
+        <v>0.04210377331002825</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>96</v>
+      </c>
+      <c r="J47" t="n">
+        <v>215</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3141361613.804744</v>
+        <v>4277506217.634979</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06650872790576827</v>
+        <v>0.07785573464680318</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03890193405838464</v>
+        <v>0.0308579123387959</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>106</v>
+      </c>
+      <c r="J48" t="n">
+        <v>215</v>
+      </c>
+      <c r="K48" t="n">
+        <v>118.5174258483155</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1207861323.479658</v>
+        <v>1906157668.080474</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1328644876322908</v>
+        <v>0.1243910815410769</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0367953675849396</v>
+        <v>0.04097107090303776</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3650218741.31694</v>
+        <v>4146388374.171304</v>
       </c>
       <c r="F50" t="n">
-        <v>0.146324691457991</v>
+        <v>0.1136198895701939</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05253410730984309</v>
+        <v>0.03509862857535978</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>68</v>
+      </c>
+      <c r="J50" t="n">
+        <v>215</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1392187345.110307</v>
+        <v>1168880665.454207</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1516963065953638</v>
+        <v>0.1346137592697039</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04278218916682991</v>
+        <v>0.04050403855963582</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2267,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3532637814.854426</v>
+        <v>3530421583.22736</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1026337917171414</v>
+        <v>0.09665581510727293</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04342761172861216</v>
+        <v>0.05665638883945331</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>145</v>
+      </c>
+      <c r="J52" t="n">
+        <v>215</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2558445967.815072</v>
+        <v>3153213248.891153</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1677954183423407</v>
+        <v>0.1320020332606652</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02175365384258906</v>
+        <v>0.02730409117771204</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>28</v>
+      </c>
+      <c r="J53" t="n">
+        <v>205</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3377217323.201639</v>
+        <v>4670852915.53857</v>
       </c>
       <c r="F54" t="n">
-        <v>0.118459354927885</v>
+        <v>0.116861260853572</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04671410519516998</v>
+        <v>0.05307140930986531</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>113</v>
+      </c>
+      <c r="J54" t="n">
+        <v>215</v>
+      </c>
+      <c r="K54" t="n">
+        <v>117.297505776239</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3723941703.056045</v>
+        <v>3799676029.992412</v>
       </c>
       <c r="F55" t="n">
-        <v>0.219288080697047</v>
+        <v>0.1539663305209345</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03023506716685431</v>
+        <v>0.02685485968154873</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>96</v>
+      </c>
+      <c r="J55" t="n">
+        <v>215</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1410914643.927284</v>
+        <v>1202299337.489385</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1626852759245123</v>
+        <v>0.1437274916068058</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03706958405446689</v>
+        <v>0.03584444187867416</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3826300560.569916</v>
+        <v>4064019571.039428</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1203792931801231</v>
+        <v>0.1222275581564572</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02672161345748725</v>
+        <v>0.02268003441592997</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>83</v>
+      </c>
+      <c r="J57" t="n">
+        <v>215</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2479,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1474008844.080932</v>
+        <v>1579191029.961816</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1613456496137607</v>
+        <v>0.127958801853468</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03093453793710244</v>
+        <v>0.03974143899462471</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4227300944.360503</v>
+        <v>3966882929.145513</v>
       </c>
       <c r="F59" t="n">
-        <v>0.110248068178582</v>
+        <v>0.09944818830546769</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03701349124196491</v>
+        <v>0.04366353465834596</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>104</v>
+      </c>
+      <c r="J59" t="n">
+        <v>214</v>
+      </c>
+      <c r="K59" t="n">
+        <v>94.74402369637237</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2551,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3455604860.6182</v>
+        <v>2747634760.825052</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1592188200267715</v>
+        <v>0.2033869933665564</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02408933923221077</v>
+        <v>0.03004904407678571</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>30</v>
+      </c>
+      <c r="J60" t="n">
+        <v>210</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2123734120.843989</v>
+        <v>2979514468.62454</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1261170826651194</v>
+        <v>0.1731935698485419</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02629198437466451</v>
+        <v>0.02917186642839186</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1566828451.681332</v>
+        <v>1682794766.755923</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1350384480936564</v>
+        <v>0.1712936338198809</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04713126885535621</v>
+        <v>0.04034085778967526</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2656,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5270930950.988339</v>
+        <v>5375741984.264671</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09554740264449742</v>
+        <v>0.1002068391747267</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03140095146747114</v>
+        <v>0.03512340662740078</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>105</v>
+      </c>
+      <c r="J63" t="n">
+        <v>214</v>
+      </c>
+      <c r="K63" t="n">
+        <v>106.2998420056153</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4442235689.945831</v>
+        <v>4206502509.759115</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1751673367582147</v>
+        <v>0.1850632677966297</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02498907165583723</v>
+        <v>0.02185744224000967</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>106</v>
+      </c>
+      <c r="J64" t="n">
+        <v>214</v>
+      </c>
+      <c r="K64" t="n">
+        <v>109.7431333468997</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5065148795.779645</v>
+        <v>3836457122.965328</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1173240184094966</v>
+        <v>0.1332855061917305</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03018026680910911</v>
+        <v>0.03031606091586768</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>172</v>
+      </c>
+      <c r="J65" t="n">
+        <v>214</v>
+      </c>
+      <c r="K65" t="n">
+        <v>97.53976175904478</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5512056303.973833</v>
+        <v>3448655040.549724</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1410401966672575</v>
+        <v>0.1303420662112559</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03825952896871333</v>
+        <v>0.04007892732258937</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>106</v>
+      </c>
+      <c r="J66" t="n">
+        <v>214</v>
+      </c>
+      <c r="K66" t="n">
+        <v>69.28162537097751</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3426657366.733695</v>
+        <v>3355222200.820092</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07096639010009308</v>
+        <v>0.07480066653725002</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05001592579333839</v>
+        <v>0.05011442410985923</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>211</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4816579855.502724</v>
+        <v>3660336900.054706</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1477689727005579</v>
+        <v>0.1337118038368197</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03655274079696985</v>
+        <v>0.04848579164302234</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>108</v>
+      </c>
+      <c r="J68" t="n">
+        <v>215</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2044774618.358119</v>
+        <v>2369412566.977358</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1223186035043816</v>
+        <v>0.1212357399227228</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04810333692174879</v>
+        <v>0.05341755955706205</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3584747434.696208</v>
+        <v>2797390071.576104</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1020516492844681</v>
+        <v>0.0983426460752692</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04300886218473531</v>
+        <v>0.03492680411821044</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>32</v>
+      </c>
+      <c r="J70" t="n">
+        <v>206</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5470268620.312793</v>
+        <v>4273132253.546759</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1283202895552207</v>
+        <v>0.16484197433085</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03381449308858814</v>
+        <v>0.03194857483564466</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>164</v>
+      </c>
+      <c r="J71" t="n">
+        <v>215</v>
+      </c>
+      <c r="K71" t="n">
+        <v>116.8184426297279</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1416640285.534453</v>
+        <v>1679149754.382892</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1085081794061652</v>
+        <v>0.103962895752065</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04550506812699401</v>
+        <v>0.04762076932389914</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2194387278.075812</v>
+        <v>2190416812.1069</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0974005190986693</v>
+        <v>0.1081876143597788</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03348546103183013</v>
+        <v>0.04158684500101058</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3414931325.340239</v>
+        <v>2586713714.330002</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1289897420948533</v>
+        <v>0.1759088343658504</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02496297876604926</v>
+        <v>0.02595359193687178</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>62</v>
+      </c>
+      <c r="J74" t="n">
+        <v>208</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1586289333.733443</v>
+        <v>1540569693.835231</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1224287913123234</v>
+        <v>0.1669785051098538</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03095688031008917</v>
+        <v>0.03774690237771243</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3121,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3888102872.737443</v>
+        <v>4809004321.468865</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09313495121766503</v>
+        <v>0.1106942157724212</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02340315007231385</v>
+        <v>0.03233103432351662</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>99</v>
+      </c>
+      <c r="J76" t="n">
+        <v>214</v>
+      </c>
+      <c r="K76" t="n">
+        <v>100.2985587717186</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1486559552.967742</v>
+        <v>2086683878.018233</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1124570733455083</v>
+        <v>0.114916959952678</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03003777079598308</v>
+        <v>0.02606964797997383</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3202412422.841199</v>
+        <v>4377896897.583998</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1015549433593982</v>
+        <v>0.09572679299621713</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05351827424857392</v>
+        <v>0.04367307176870874</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>107</v>
+      </c>
+      <c r="J78" t="n">
+        <v>215</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1471442891.494107</v>
+        <v>1281541255.206848</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1735143735380063</v>
+        <v>0.1073856969270121</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03756999457039498</v>
+        <v>0.03548149263600534</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3834929252.2517</v>
+        <v>5136455051.016029</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1038638875465172</v>
+        <v>0.07406587051344021</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0245581090207483</v>
+        <v>0.03182715602408884</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>104</v>
+      </c>
+      <c r="J80" t="n">
+        <v>215</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3298,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3824672824.671122</v>
+        <v>4862344936.675084</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08925856464817992</v>
+        <v>0.09485925493430682</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02946066528281378</v>
+        <v>0.02245483047305259</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>99</v>
+      </c>
+      <c r="J81" t="n">
+        <v>214</v>
+      </c>
+      <c r="K81" t="n">
+        <v>99.18590726030504</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3335,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5700568950.15357</v>
+        <v>4594352536.353249</v>
       </c>
       <c r="F82" t="n">
-        <v>0.139921035195256</v>
+        <v>0.1677945237259739</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01885426567648378</v>
+        <v>0.02477290856753145</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>159</v>
+      </c>
+      <c r="J82" t="n">
+        <v>215</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1743028834.802983</v>
+        <v>1611966746.562861</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1550569975437374</v>
+        <v>0.1089143041228938</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03807346291620242</v>
+        <v>0.03813805568947148</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1625134538.993397</v>
+        <v>2108443813.836657</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08120657896866403</v>
+        <v>0.1049117313229229</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04354329205243034</v>
+        <v>0.04994421130477258</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2868423484.799781</v>
+        <v>3026548349.783044</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1151040962179196</v>
+        <v>0.123564113411085</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04457979498939024</v>
+        <v>0.04106926319774297</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>205</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1713205598.939814</v>
+        <v>1689448527.866209</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1587766890616805</v>
+        <v>0.1295046559140235</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01789796996086306</v>
+        <v>0.02013329284270612</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1001729942.710437</v>
+        <v>1429413146.65346</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1462028114823537</v>
+        <v>0.1666965524017088</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02921878045679898</v>
+        <v>0.02738448653478433</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3539,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3636683633.091919</v>
+        <v>2275196109.236529</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1312622218019789</v>
+        <v>0.1142384939439278</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03506021166276557</v>
+        <v>0.0339994663270725</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>31</v>
+      </c>
+      <c r="J88" t="n">
+        <v>214</v>
+      </c>
+      <c r="K88" t="n">
+        <v>35.8343968914842</v>
       </c>
     </row>
     <row r="89">
@@ -2922,16 +3582,25 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2877790607.131807</v>
+        <v>2731042941.124795</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1194753368931161</v>
+        <v>0.1505561688266773</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02687779361784543</v>
+        <v>0.02549285458804272</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>15</v>
+      </c>
+      <c r="J89" t="n">
+        <v>214</v>
+      </c>
+      <c r="K89" t="n">
+        <v>53.52351731078692</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1844225251.612405</v>
+        <v>2043790308.251312</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1018932559508624</v>
+        <v>0.1334926168022181</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05100305732382767</v>
+        <v>0.04548927778852737</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1441160250.076319</v>
+        <v>1760841955.883304</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1628308687183638</v>
+        <v>0.1627353452955296</v>
       </c>
       <c r="G91" t="n">
-        <v>0.048666638022939</v>
+        <v>0.0446163981322646</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2909941060.752088</v>
+        <v>2448616289.085981</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06819655242700988</v>
+        <v>0.0999496691251406</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03780702704871222</v>
+        <v>0.04619770717031968</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4862418535.946095</v>
+        <v>4470928499.807899</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1271326850416123</v>
+        <v>0.1068454856979943</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0336477210155299</v>
+        <v>0.03387545707272072</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>96</v>
+      </c>
+      <c r="J93" t="n">
+        <v>215</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2025658339.893731</v>
+        <v>1970214671.929139</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1423444402452295</v>
+        <v>0.1238535951233345</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04128398391403006</v>
+        <v>0.03735327956197065</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2198967175.671803</v>
+        <v>2924172587.101884</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1247659098867307</v>
+        <v>0.1221296582284262</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03913443031242832</v>
+        <v>0.0415352696636288</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2244775142.506868</v>
+        <v>1757485285.738066</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08763902882748473</v>
+        <v>0.08611817823445085</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03864858010396049</v>
+        <v>0.04626161295513075</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3363637073.94783</v>
+        <v>4558780942.845737</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1152452830336113</v>
+        <v>0.1666650267345069</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01936956664484477</v>
+        <v>0.01835028198651379</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>104</v>
+      </c>
+      <c r="J97" t="n">
+        <v>214</v>
+      </c>
+      <c r="K97" t="n">
+        <v>113.5477998324744</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3205964548.956469</v>
+        <v>2858248995.332827</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1225907448786045</v>
+        <v>0.1050787288126895</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02794310675146423</v>
+        <v>0.02806919049878656</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>53</v>
+      </c>
+      <c r="J98" t="n">
+        <v>209</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3264122694.122395</v>
+        <v>2622240425.307063</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1241273117879763</v>
+        <v>0.1446085788043776</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03209662056035234</v>
+        <v>0.02377730608895561</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4418550055.17398</v>
+        <v>4066507225.099703</v>
       </c>
       <c r="F100" t="n">
-        <v>0.136533748335885</v>
+        <v>0.1519804568850791</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02004344755385038</v>
+        <v>0.01867812253790874</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>89</v>
+      </c>
+      <c r="J100" t="n">
+        <v>215</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2344539268.884963</v>
+        <v>2394677097.972294</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1345463707537013</v>
+        <v>0.1702179722300032</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04754541133503801</v>
+        <v>0.05149574604821153</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
